--- a/medicine/Enfance/Maria_Parr/Maria_Parr.xlsx
+++ b/medicine/Enfance/Maria_Parr/Maria_Parr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Parr (née le 18 janvier 1981 à Vanylven[1]) est une écrivaine de littérature jeunesse norvégienne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Parr (née le 18 janvier 1981 à Vanylven) est une écrivaine de littérature jeunesse norvégienne.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 2019 à 2021, elle est sélectionnée durant trois années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 2019 à 2021, elle est sélectionnée durant trois années d'affilée pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Romans jeunesse traduits en français : 
-Cascades et gaufres à gogo (Vaffelhjarte, 2005[1]), traduit du néo-norvégien par Jean-Baptiste Coursaud, éditions Thierry Magnier, 2009
+Cascades et gaufres à gogo (Vaffelhjarte, 2005), traduit du néo-norvégien par Jean-Baptiste Coursaud, éditions Thierry Magnier, 2009
 La Petite Terreur de Glimmerdal (Tonje Glimmerdal, 2009), traduit du néo-norvégien par Jean-Baptiste Coursaud, Thierry Magnier, 2012
 Foot et radeaux à gogo (Keeperen og havet), traduit du néo-norvégien par Aude Pasquier, Thierry Magnier, 2018</t>
         </is>
@@ -575,12 +591,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Brage 2009[1] pour La Petite Terreur de Glimmerdal
-Prix Nynorsk User of the Year en 2010[3].
-(international) « Honour List » 2012[4] de l' IBBY pour La Petite Terreur de Glimmerdal
- Sélection pour le Prix commémoratif Astrid-Lindgren de 2019 à 2021[2]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Brage 2009 pour La Petite Terreur de Glimmerdal
+Prix Nynorsk User of the Year en 2010.
+(international) « Honour List » 2012 de l' IBBY pour La Petite Terreur de Glimmerdal
+ Sélection pour le Prix commémoratif Astrid-Lindgren de 2019 à 2021</t>
         </is>
       </c>
     </row>
